--- a/Platzhalter.xlsx
+++ b/Platzhalter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\Documents\GitHub\Master-Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762059EE-A410-49D7-B24B-6D6306DED71B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25112AE6-62FD-4820-AB23-0F10EDCBD510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4194C67E-D367-4350-9001-9AE77D0A35F9}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4194C67E-D367-4350-9001-9AE77D0A35F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="16">
   <si>
     <t>m</t>
   </si>
@@ -82,9 +82,6 @@
   </si>
   <si>
     <t>task2</t>
-  </si>
-  <si>
-    <t>x</t>
   </si>
 </sst>
 </file>
@@ -138,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -159,6 +156,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -473,19 +471,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5F13FDD-23CE-4F9B-AE6F-CB23FA5ABA6B}">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.85546875" style="4" customWidth="1"/>
-    <col min="2" max="7" width="20.85546875" customWidth="1"/>
+    <col min="2" max="6" width="20.85546875" customWidth="1"/>
+    <col min="7" max="7" width="5.42578125" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" customWidth="1"/>
+    <col min="11" max="11" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -504,11 +507,23 @@
       <c r="F1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -530,11 +545,19 @@
         <f>"#"&amp;A2&amp;C2&amp;"r"&amp;"#"</f>
         <v>#1Ar#</v>
       </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="str">
+        <f>"#"&amp;A2&amp;H2&amp;"#"</f>
+        <v>#1E#</v>
+      </c>
+      <c r="J2" t="str">
+        <f>"#"&amp;A2&amp;H2&amp;"e"&amp;"#"</f>
+        <v>#1Ee#</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -556,11 +579,19 @@
         <f t="shared" ref="F3:F41" si="2">"#"&amp;A3&amp;C3&amp;"r"&amp;"#"</f>
         <v>#2Cr#</v>
       </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" ref="I3:I28" si="3">"#"&amp;A3&amp;H3&amp;"#"</f>
+        <v>#2E#</v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J28" si="4">"#"&amp;A3&amp;H3&amp;"e"&amp;"#"</f>
+        <v>#2Ee#</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -582,11 +613,19 @@
         <f t="shared" si="2"/>
         <v>#3Er#</v>
       </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="3"/>
+        <v>#3N#</v>
+      </c>
+      <c r="J4" t="str">
+        <f>"#"&amp;A4&amp;H4&amp;"e"&amp;"#"</f>
+        <v>#3Ne#</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -608,11 +647,19 @@
         <f t="shared" si="2"/>
         <v>#4Nr#</v>
       </c>
-      <c r="G5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="3"/>
+        <v>#4E#</v>
+      </c>
+      <c r="K5" t="str">
+        <f>"#"&amp;A5&amp;H5&amp;"r"&amp;"#"</f>
+        <v>#4Er#</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -634,11 +681,19 @@
         <f t="shared" si="2"/>
         <v>#5Or#</v>
       </c>
-      <c r="G6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="3"/>
+        <v>#5N#</v>
+      </c>
+      <c r="K6" t="str">
+        <f>"#"&amp;A6&amp;H6&amp;"r"&amp;"#"</f>
+        <v>#5Nr#</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -660,11 +715,19 @@
         <f>"#"&amp;A7&amp;C7&amp;"r"&amp;"#"</f>
         <v>#6Ar#</v>
       </c>
-      <c r="G7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="3"/>
+        <v>#6E#</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" ref="K3:K28" si="5">"#"&amp;A7&amp;H7&amp;"r"&amp;"#"</f>
+        <v>#6Er#</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -686,11 +749,19 @@
         <f t="shared" si="2"/>
         <v>#7Cr#</v>
       </c>
-      <c r="G8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="3"/>
+        <v>#7N#</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" ref="J7:J8" si="6">"#"&amp;A8&amp;H8&amp;"e"&amp;"#"</f>
+        <v>#7Ne#</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -712,11 +783,19 @@
         <f t="shared" si="2"/>
         <v>#8Er#</v>
       </c>
-      <c r="G9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="3"/>
+        <v>#8N#</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="5"/>
+        <v>#8Nr#</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -738,11 +817,19 @@
         <f t="shared" si="2"/>
         <v>#9Nr#</v>
       </c>
-      <c r="G10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="3"/>
+        <v>#9A#</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="4"/>
+        <v>#9Ae#</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -764,11 +851,19 @@
         <f t="shared" si="2"/>
         <v>#10Or#</v>
       </c>
-      <c r="G11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="3"/>
+        <v>#10A#</v>
+      </c>
+      <c r="J11" t="str">
+        <f>"#"&amp;A11&amp;H11&amp;"e"&amp;"#"</f>
+        <v>#10Ae#</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -790,11 +885,19 @@
         <f t="shared" si="2"/>
         <v>#11Ar#</v>
       </c>
-      <c r="G12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="3"/>
+        <v>#11C#</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="4"/>
+        <v>#11Ce#</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -816,8 +919,19 @@
         <f t="shared" si="2"/>
         <v>#12Cr#</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="3"/>
+        <v>#12A#</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="5"/>
+        <v>#12Ar#</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -839,11 +953,19 @@
         <f t="shared" si="2"/>
         <v>#13Er#</v>
       </c>
-      <c r="G14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="3"/>
+        <v>#13C#</v>
+      </c>
+      <c r="J14" t="str">
+        <f>"#"&amp;A14&amp;H14&amp;"e"&amp;"#"</f>
+        <v>#13Ce#</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -865,11 +987,19 @@
         <f t="shared" si="2"/>
         <v>#14Nr#</v>
       </c>
-      <c r="G15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="3"/>
+        <v>#14C#</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="5"/>
+        <v>#14Cr#</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -891,11 +1021,8 @@
         <f t="shared" si="2"/>
         <v>#15Or#</v>
       </c>
-      <c r="G16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -917,8 +1044,19 @@
         <f t="shared" si="2"/>
         <v>#16Ar#</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="3"/>
+        <v>#16C#</v>
+      </c>
+      <c r="K17" t="str">
+        <f>"#"&amp;A17&amp;H17&amp;"r"&amp;"#"</f>
+        <v>#16Cr#</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -940,8 +1078,19 @@
         <f t="shared" si="2"/>
         <v>#17Cr#</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>9</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="3"/>
+        <v>#17O#</v>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="5"/>
+        <v>#17Or#</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -963,8 +1112,19 @@
         <f t="shared" si="2"/>
         <v>#18Er#</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>9</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="3"/>
+        <v>#18O#</v>
+      </c>
+      <c r="J19" t="str">
+        <f>"#"&amp;A19&amp;H19&amp;"e"&amp;"#"</f>
+        <v>#18Oe#</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -986,11 +1146,8 @@
         <f t="shared" si="2"/>
         <v>#19Nr#</v>
       </c>
-      <c r="G20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -1012,11 +1169,19 @@
         <f t="shared" si="2"/>
         <v>#20Or#</v>
       </c>
-      <c r="G21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="3"/>
+        <v>#20A#</v>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" si="5"/>
+        <v>#20Ar#</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -1038,8 +1203,19 @@
         <f t="shared" si="2"/>
         <v>#21Ar#</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
+        <v>9</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="3"/>
+        <v>#21O#</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="4"/>
+        <v>#21Oe#</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -1062,7 +1238,7 @@
         <v>#22Cr#</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -1085,7 +1261,7 @@
         <v>#23Er#</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -1108,7 +1284,7 @@
         <v>#24Nr#</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -1131,7 +1307,7 @@
         <v>#25Or#</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -1153,11 +1329,8 @@
         <f t="shared" si="2"/>
         <v>#26Ar#</v>
       </c>
-      <c r="G27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -1179,11 +1352,19 @@
         <f t="shared" si="2"/>
         <v>#27Cr#</v>
       </c>
-      <c r="G28" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" t="s">
+        <v>9</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="3"/>
+        <v>#27O#</v>
+      </c>
+      <c r="K28" t="str">
+        <f t="shared" si="5"/>
+        <v>#27Or#</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -1205,11 +1386,8 @@
         <f t="shared" si="2"/>
         <v>#28Er#</v>
       </c>
-      <c r="G29" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -1232,7 +1410,7 @@
         <v>#29Nr#</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -1255,7 +1433,7 @@
         <v>#30Or#</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -1276,9 +1454,6 @@
       <c r="F32" t="str">
         <f t="shared" si="2"/>
         <v>#31Cr#</v>
-      </c>
-      <c r="G32" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
